--- a/関連帳票/機能設計書/機能設計_生産管理板画面.xlsx
+++ b/関連帳票/機能設計書/機能設計_生産管理板画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F81AE58-8EA9-4F17-8ABD-7689A733A57A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F02B1B-F8F2-4093-9372-9FE1096212DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>№</t>
     <phoneticPr fontId="4"/>
@@ -916,6 +916,57 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生産管理板画面</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生産数上昇加工ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタンのデザインを四角から参画に変更した（視覚的にプラスかマイナスかを判断できるようにするため）</t>
+    <rPh sb="9" eb="11">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>シカクテキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハンダン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2117,134 +2168,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>588818</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>111123</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FBE7B97-588D-4A39-81D5-ECD508D4E79F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10556875" y="7985124"/>
-          <a:ext cx="699943" cy="698499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1"/>
-            <a:t>+</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>582468</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB8B62A-EDFF-49C6-BE94-C0C18A95F032}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10550525" y="8994774"/>
-          <a:ext cx="699943" cy="698499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
-            <a:t>－</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>565150</xdr:colOff>
       <xdr:row>50</xdr:row>
@@ -2587,6 +2510,134 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584065</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>92522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="二等辺三角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07D6B35-5984-408F-8A6E-1500E212984F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10585315" y="8030022"/>
+          <a:ext cx="924060" cy="737514"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581591</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>201839</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>13872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="二等辺三角形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B4A329-87C9-4158-8F32-EDB91E895ACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="10582841" y="8944428"/>
+          <a:ext cx="953748" cy="753194"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2890,7 +2941,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -2937,10 +2988,18 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
+      <c r="B3" s="6">
+        <v>43719</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
@@ -3897,8 +3956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC662184-8CA3-4DF0-93F1-7AF91F6262FE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AI19" sqref="AI19"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AH36" sqref="AH36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -3916,7 +3975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C68495E-2E7F-4A23-96AD-8D728D45F7FD}">
   <dimension ref="B2:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
@@ -4189,7 +4248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BA9377-DA34-4F61-9576-B29B3376AD3D}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>

--- a/関連帳票/機能設計書/機能設計_生産管理板画面.xlsx
+++ b/関連帳票/機能設計書/機能設計_生産管理板画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F02B1B-F8F2-4093-9372-9FE1096212DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC60809-6DEE-4B13-8810-9CBD57B14BA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>№</t>
     <phoneticPr fontId="4"/>
@@ -638,22 +638,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・稼働状況のデフォルト表示は「稼働中」</t>
-    <rPh sb="1" eb="3">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>カドウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>最初にログインした段階では「稼働中」になっておくようにする</t>
     <rPh sb="0" eb="2">
       <t>サイショ</t>
@@ -967,6 +951,38 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画面を開いたとき、大きさが「75%」になるように設定する</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>稼働状況のデフォルト表示は「稼働中」</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カドウチュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2992,13 +3008,13 @@
         <v>43719</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3957,7 +3973,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AH36" sqref="AH36"/>
+      <selection activeCell="AQ29" sqref="AQ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -3973,95 +3989,101 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C68495E-2E7F-4A23-96AD-8D728D45F7FD}">
-  <dimension ref="B2:O49"/>
+  <dimension ref="B2:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF18" sqref="AF18"/>
+    <sheetView zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E12" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F16" t="s">
-        <v>52</v>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.55000000000000004">
       <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" t="s">
-        <v>54</v>
-      </c>
-      <c r="O17" s="20" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.55000000000000004">
       <c r="G18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.55000000000000004">
       <c r="G19" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O19" t="s">
         <v>59</v>
@@ -4079,52 +4101,52 @@
       </c>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="G21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" t="s">
-        <v>58</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="F21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="4:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="F22" t="s">
-        <v>62</v>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.55000000000000004">
       <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N23" t="s">
-        <v>54</v>
-      </c>
-      <c r="O23" s="20" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.55000000000000004">
       <c r="G24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.55000000000000004">
       <c r="G25" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O25" t="s">
         <v>63</v>
@@ -4141,55 +4163,49 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="G27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" t="s">
-        <v>58</v>
-      </c>
-      <c r="O27" t="s">
-        <v>65</v>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" t="s">
-        <v>28</v>
+      <c r="E29" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E32" t="s">
-        <v>33</v>
+      <c r="F32" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="F33" t="s">
-        <v>34</v>
+      <c r="G33" s="20" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G34" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G35" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G36" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.55000000000000004">
@@ -4199,42 +4215,47 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G38" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G39" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E41" t="s">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C43" t="s">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E46" t="s">
+      <c r="E45" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D47" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E49" t="s">
+      <c r="E48" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E51" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4249,7 +4270,7 @@
   <dimension ref="B2:N36"/>
   <sheetViews>
     <sheetView zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4373,22 +4394,22 @@
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/関連帳票/機能設計書/機能設計_生産管理板画面.xlsx
+++ b/関連帳票/機能設計書/機能設計_生産管理板画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC60809-6DEE-4B13-8810-9CBD57B14BA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7228A5-61E2-4452-B4B3-3C79303128CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
   </bookViews>
@@ -936,25 +936,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ボタンのデザインを四角から参画に変更した（視覚的にプラスかマイナスかを判断できるようにするため）</t>
-    <rPh sb="9" eb="11">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サンカク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>シカクテキ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ハンダン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・画面を開いたとき、大きさが「75%」になるように設定する</t>
     <rPh sb="1" eb="3">
       <t>ガメン</t>
@@ -983,6 +964,25 @@
     </rPh>
     <rPh sb="14" eb="17">
       <t>カドウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタンのデザインを四角から三角に変更した（視覚的にプラスかマイナスかを判断できるようにするため）</t>
+    <rPh sb="9" eb="11">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>シカクテキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハンダン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2956,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C14437-4FE1-4CA3-B519-BEBFD716E4BB}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -3014,7 +3014,7 @@
         <v>71</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3973,7 +3973,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AQ29" sqref="AQ29"/>
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -3991,7 +3991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C68495E-2E7F-4A23-96AD-8D728D45F7FD}">
   <dimension ref="B2:O51"/>
   <sheetViews>
-    <sheetView zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -4250,7 +4250,7 @@
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.55000000000000004">

--- a/関連帳票/機能設計書/機能設計_生産管理板画面.xlsx
+++ b/関連帳票/機能設計書/機能設計_生産管理板画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7228A5-61E2-4452-B4B3-3C79303128CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC954D6-0B2F-4832-A744-A80044150270}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>№</t>
     <phoneticPr fontId="4"/>
@@ -983,6 +983,41 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表、ボタンの配置</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生産数を表示する表と、各ボタンの配置を変更した</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1290,56 +1325,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>308842</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>27421</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>626342</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078081C6-6FAE-40E7-9892-A6AB0A6C8432}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="308842" y="997239"/>
-          <a:ext cx="4924136" cy="6533284"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1454,7 +1439,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1504,7 +1489,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1554,7 +1539,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1579,14 +1564,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>127001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>477693</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>525318</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
@@ -1603,7 +1588,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3968750" y="8064501"/>
+          <a:off x="9350375" y="8064501"/>
           <a:ext cx="2509693" cy="1635124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1643,14 +1628,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>217343</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>264968</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
@@ -1667,7 +1652,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="301625" y="8058150"/>
+          <a:off x="5683250" y="8058150"/>
           <a:ext cx="2582718" cy="1625599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1707,16 +1692,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1731,7 +1716,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17176750" y="7953375"/>
+          <a:off x="873125" y="7858125"/>
           <a:ext cx="3540125" cy="1778000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2101,16 +2086,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2125,7 +2110,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12712700" y="7966075"/>
+          <a:off x="869950" y="5521325"/>
           <a:ext cx="3546475" cy="1778000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2184,13 +2169,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>565150</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>407843</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>15874</xdr:rowOff>
@@ -2208,7 +2193,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7899400" y="7978775"/>
+          <a:off x="12566650" y="7978775"/>
           <a:ext cx="2509693" cy="1720849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2241,76 +2226,6 @@
             <a:t>ＯＫ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="楕円 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4074E32A-22D8-40C5-BAEB-5AC2FF201B58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4524375" y="650875"/>
-          <a:ext cx="809625" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2528,14 +2443,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>584065</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12565</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>92522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>36286</xdr:rowOff>
     </xdr:to>
@@ -2552,7 +2467,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10585315" y="8030022"/>
+          <a:off x="15347815" y="8030022"/>
           <a:ext cx="924060" cy="737514"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -2592,14 +2507,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>581591</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10091</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>201839</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>297089</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>13872</xdr:rowOff>
     </xdr:to>
@@ -2616,7 +2531,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="10582841" y="8944428"/>
+          <a:off x="15345341" y="8944428"/>
           <a:ext cx="953748" cy="753194"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -2649,6 +2564,209 @@
             <a:t>-</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>555624</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63499</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838BE4E4-EAF7-4CC6-ADA3-4A3CE151818D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="555624" y="984250"/>
+          <a:ext cx="4841875" cy="4111625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4074E32A-22D8-40C5-BAEB-5AC2FF201B58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="650875"/>
+          <a:ext cx="809625" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B128DCB6-37B5-4764-878D-A93987CB1DDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16859250" y="7880350"/>
+          <a:ext cx="3743325" cy="1778000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>製品品番</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2957,7 +3075,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -3021,10 +3139,18 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="6">
+        <v>43720</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
@@ -3973,7 +4099,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+      <selection activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
